--- a/Version_on_pcloud/Data/Data_KS24-628/Helperfile_KD24.xlsx
+++ b/Version_on_pcloud/Data/Data_KS24-628/Helperfile_KD24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\KS24-628\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Python dev\PrePostCalderaKil_2025\Version_on_pcloud\Data\Data_KS24-628\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B55F0-1548-4696-9E0B-40FDEC0734E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2800A3-3313-45BC-8370-3C508C7E11E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="720" windowWidth="19020" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>filename</t>
   </si>
@@ -237,6 +237,78 @@
   </si>
   <si>
     <t>c012</t>
+  </si>
+  <si>
+    <t>FG04-A1-4-end_r5</t>
+  </si>
+  <si>
+    <t>FG04-A1-4-end_r6</t>
+  </si>
+  <si>
+    <t>FG04-A1-4-end_r7</t>
+  </si>
+  <si>
+    <t>KD24_c014_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c014_a2_FIB</t>
+  </si>
+  <si>
+    <t>KD24_c016_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c017_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c017_a2_FIB</t>
+  </si>
+  <si>
+    <t>KD24_c018_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c018_a1_FIB</t>
+  </si>
+  <si>
+    <t>KD24_c020_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c021_a2_FIB</t>
+  </si>
+  <si>
+    <t>KD24_c023_a1_FIA</t>
+  </si>
+  <si>
+    <t>KD24_c023_a1_FIB</t>
+  </si>
+  <si>
+    <t>KD24_c023_a1_FIC</t>
+  </si>
+  <si>
+    <t>KD24_c024_a1_FIA</t>
+  </si>
+  <si>
+    <t>c014</t>
+  </si>
+  <si>
+    <t>c016</t>
+  </si>
+  <si>
+    <t>c017</t>
+  </si>
+  <si>
+    <t>c018</t>
+  </si>
+  <si>
+    <t>c020</t>
+  </si>
+  <si>
+    <t>c021</t>
+  </si>
+  <si>
+    <t>c023</t>
+  </si>
+  <si>
+    <t>c024</t>
   </si>
 </sst>
 </file>
@@ -583,15 +655,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1AE86E-F97B-4AFF-9664-007014C39847}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" customWidth="1"/>
@@ -635,7 +708,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1">
         <v>45674</v>
@@ -659,13 +732,13 @@
         <v>34</v>
       </c>
       <c r="K2" t="str">
-        <f>_xlfn.CONCAT(E2,"-",F2,"-",H2,"-start-",B2)</f>
-        <v>FG04-A1-4-start-45674</v>
+        <f t="shared" ref="K2:K3" si="0">_xlfn.CONCAT(E2,"-",F2,"-",H2,"-end-",B2)</f>
+        <v>FG04-A1-4-end-45674</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1">
         <v>45674</v>
@@ -689,13 +762,13 @@
         <v>34</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K4" si="0">_xlfn.CONCAT(E3,"-",F3,"-",H3,"-start-",B3)</f>
-        <v>FG04-A1-4-start-45674</v>
+        <f t="shared" si="0"/>
+        <v>FG04-A1-4-end-45674</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1">
         <v>45674</v>
@@ -719,188 +792,173 @@
         <v>34</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="0"/>
-        <v>FG04-A1-4-start-45674</v>
+        <f>_xlfn.CONCAT(E4,"-",F4,"-",H4,"-end-",B4)</f>
+        <v>FG04-A1-4-end-45674</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>45674</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="str">
-        <f>_xlfn.CONCAT(E5,"_",F5)</f>
-        <v>KD24_c001</v>
-      </c>
-      <c r="J5" t="str">
-        <f>_xlfn.CONCAT(I5,"_",G5)</f>
-        <v>KD24_c001_a1</v>
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
       </c>
       <c r="K5" t="str">
-        <f>_xlfn.CONCAT(J5,"_",H5)</f>
-        <v>KD24_c001_a1_FIA</v>
+        <f t="shared" ref="K5:K7" si="1">_xlfn.CONCAT(E5,"-",F5,"-",H5,"-start-",B5)</f>
+        <v>FG04-A1-4-start-45674</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>45674</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
+      <c r="C6" t="s">
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I34" si="1">_xlfn.CONCAT(E6,"_",F6)</f>
-        <v>KD24_c001</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ref="J6:K6" si="2">_xlfn.CONCAT(I6,"_",G6)</f>
-        <v>KD24_c001_a1</v>
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>KD24_c001_a1_FIA</v>
+        <f t="shared" si="1"/>
+        <v>FG04-A1-4-start-45674</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>45674</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
+      <c r="C7" t="s">
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>FG04-A1-4-start-45674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
+      <c r="I8" t="str">
+        <f>_xlfn.CONCAT(E8,"_",F8)</f>
         <v>KD24_c001</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7:K7" si="3">_xlfn.CONCAT(I7,"_",G7)</f>
+      <c r="J8" t="str">
+        <f>_xlfn.CONCAT(I8,"_",G8)</f>
         <v>KD24_c001_a1</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT(J8,"_",H8)</f>
+        <v>KD24_c001_a1_FIA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9:I37" si="2">_xlfn.CONCAT(E9,"_",F9)</f>
+        <v>KD24_c001</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:K9" si="3">_xlfn.CONCAT(I9,"_",G9)</f>
+        <v>KD24_c001_a1</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>KD24_c001_a1_FIA</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45674</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c001</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" ref="J8:K8" si="4">_xlfn.CONCAT(I8,"_",G8)</f>
-        <v>KD24_c001_a1</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="4"/>
-        <v>KD24_c001_a1_FIB</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45674</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c001</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" ref="J9:K9" si="5">_xlfn.CONCAT(I9,"_",G9)</f>
-        <v>KD24_c001_a1</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="5"/>
-        <v>KD24_c001_a1_FIC</v>
-      </c>
-    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>45674</v>
@@ -912,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -921,21 +979,21 @@
         <v>7</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c002</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c001</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ref="J10:K10" si="6">_xlfn.CONCAT(I10,"_",G10)</f>
-        <v>KD24_c002_a1</v>
+        <f t="shared" ref="J10:K10" si="4">_xlfn.CONCAT(I10,"_",G10)</f>
+        <v>KD24_c001_a1</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="6"/>
-        <v>KD24_c002_a1_FIA</v>
+        <f t="shared" si="4"/>
+        <v>KD24_c001_a1_FIA</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <v>45674</v>
@@ -947,30 +1005,30 @@
         <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c003</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c001</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" ref="J11:K11" si="7">_xlfn.CONCAT(I11,"_",G11)</f>
-        <v>KD24_c003_a1</v>
+        <f t="shared" ref="J11:K11" si="5">_xlfn.CONCAT(I11,"_",G11)</f>
+        <v>KD24_c001_a1</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="7"/>
-        <v>KD24_c003_a1_FIA</v>
+        <f t="shared" si="5"/>
+        <v>KD24_c001_a1_FIB</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1">
         <v>45674</v>
@@ -982,30 +1040,30 @@
         <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c003</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c001</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12:K12" si="8">_xlfn.CONCAT(I12,"_",G12)</f>
-        <v>KD24_c003_a1</v>
+        <f t="shared" ref="J12:K12" si="6">_xlfn.CONCAT(I12,"_",G12)</f>
+        <v>KD24_c001_a1</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="8"/>
-        <v>KD24_c003_a1_FIB</v>
+        <f t="shared" si="6"/>
+        <v>KD24_c001_a1_FIC</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
         <v>45674</v>
@@ -1017,30 +1075,30 @@
         <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c003</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c002</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:K13" si="9">_xlfn.CONCAT(I13,"_",G13)</f>
-        <v>KD24_c003_a1</v>
+        <f t="shared" ref="J13:K13" si="7">_xlfn.CONCAT(I13,"_",G13)</f>
+        <v>KD24_c002_a1</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="9"/>
-        <v>KD24_c003_a1_FIC</v>
+        <f t="shared" si="7"/>
+        <v>KD24_c002_a1_FIA</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
         <v>45674</v>
@@ -1055,27 +1113,27 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KD24_c003</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" ref="J14:K14" si="10">_xlfn.CONCAT(I14,"_",G14)</f>
-        <v>KD24_c003_a2</v>
+        <f t="shared" ref="J14:K14" si="8">_xlfn.CONCAT(I14,"_",G14)</f>
+        <v>KD24_c003_a1</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="10"/>
-        <v>KD24_c003_a2_FID</v>
+        <f t="shared" si="8"/>
+        <v>KD24_c003_a1_FIA</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1">
         <v>45674</v>
@@ -1090,27 +1148,27 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KD24_c003</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15:K15" si="11">_xlfn.CONCAT(I15,"_",G15)</f>
-        <v>KD24_c003_a2</v>
+        <f t="shared" ref="J15:K15" si="9">_xlfn.CONCAT(I15,"_",G15)</f>
+        <v>KD24_c003_a1</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="11"/>
-        <v>KD24_c003_a2_FIE</v>
+        <f t="shared" si="9"/>
+        <v>KD24_c003_a1_FIB</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>45674</v>
@@ -1122,30 +1180,30 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c004</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c003</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16:K16" si="12">_xlfn.CONCAT(I16,"_",G16)</f>
-        <v>KD24_c004_a1</v>
+        <f t="shared" ref="J16:K16" si="10">_xlfn.CONCAT(I16,"_",G16)</f>
+        <v>KD24_c003_a1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="12"/>
-        <v>KD24_c004_a1_FIA</v>
+        <f t="shared" si="10"/>
+        <v>KD24_c003_a1_FIC</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
         <v>45674</v>
@@ -1157,30 +1215,30 @@
         <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c004</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c003</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" ref="J17:K17" si="13">_xlfn.CONCAT(I17,"_",G17)</f>
-        <v>KD24_c004_a1</v>
+        <f t="shared" ref="J17:K17" si="11">_xlfn.CONCAT(I17,"_",G17)</f>
+        <v>KD24_c003_a2</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="13"/>
-        <v>KD24_c004_a1_FIB</v>
+        <f t="shared" si="11"/>
+        <v>KD24_c003_a2_FID</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1">
         <v>45674</v>
@@ -1192,30 +1250,30 @@
         <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c004</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c003</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18:K18" si="14">_xlfn.CONCAT(I18,"_",G18)</f>
-        <v>KD24_c004_a1</v>
+        <f t="shared" ref="J18:K18" si="12">_xlfn.CONCAT(I18,"_",G18)</f>
+        <v>KD24_c003_a2</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="14"/>
-        <v>KD24_c004_a1_FIC</v>
+        <f t="shared" si="12"/>
+        <v>KD24_c003_a2_FIE</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
         <v>45674</v>
@@ -1227,7 +1285,7 @@
         <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -1236,21 +1294,21 @@
         <v>7</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c005</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c004</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" ref="J19:K19" si="15">_xlfn.CONCAT(I19,"_",G19)</f>
-        <v>KD24_c005_a1</v>
+        <f t="shared" ref="J19:K19" si="13">_xlfn.CONCAT(I19,"_",G19)</f>
+        <v>KD24_c004_a1</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="15"/>
-        <v>KD24_c005_a1_FIA</v>
+        <f t="shared" si="13"/>
+        <v>KD24_c004_a1_FIA</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1">
         <v>45674</v>
@@ -1262,30 +1320,30 @@
         <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c006</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c004</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" ref="J20:K20" si="16">_xlfn.CONCAT(I20,"_",G20)</f>
-        <v>KD24_c006_a1</v>
+        <f t="shared" ref="J20:K20" si="14">_xlfn.CONCAT(I20,"_",G20)</f>
+        <v>KD24_c004_a1</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="16"/>
-        <v>KD24_c006_a1_FIA</v>
+        <f t="shared" si="14"/>
+        <v>KD24_c004_a1_FIB</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1">
         <v>45674</v>
@@ -1297,30 +1355,30 @@
         <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c007</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c004</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21:K21" si="17">_xlfn.CONCAT(I21,"_",G21)</f>
-        <v>KD24_c007_a1</v>
+        <f t="shared" ref="J21:K21" si="15">_xlfn.CONCAT(I21,"_",G21)</f>
+        <v>KD24_c004_a1</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="17"/>
-        <v>KD24_c007_a1_FIA</v>
+        <f t="shared" si="15"/>
+        <v>KD24_c004_a1_FIC</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
         <v>45674</v>
@@ -1332,7 +1390,7 @@
         <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -1341,21 +1399,21 @@
         <v>7</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c008</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c005</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22:K22" si="18">_xlfn.CONCAT(I22,"_",G22)</f>
-        <v>KD24_c008_a1</v>
+        <f t="shared" ref="J22:K22" si="16">_xlfn.CONCAT(I22,"_",G22)</f>
+        <v>KD24_c005_a1</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="18"/>
-        <v>KD24_c008_a1_FIA</v>
+        <f t="shared" si="16"/>
+        <v>KD24_c005_a1_FIA</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1">
         <v>45674</v>
@@ -1367,30 +1425,30 @@
         <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c008</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c006</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23:K23" si="19">_xlfn.CONCAT(I23,"_",G23)</f>
-        <v>KD24_c008_a1</v>
+        <f t="shared" ref="J23:K23" si="17">_xlfn.CONCAT(I23,"_",G23)</f>
+        <v>KD24_c006_a1</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="19"/>
-        <v>KD24_c008_a1_FIB</v>
+        <f t="shared" si="17"/>
+        <v>KD24_c006_a1_FIA</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1">
         <v>45674</v>
@@ -1402,30 +1460,30 @@
         <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c008</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c007</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24:K24" si="20">_xlfn.CONCAT(I24,"_",G24)</f>
-        <v>KD24_c008_a1</v>
+        <f t="shared" ref="J24:K24" si="18">_xlfn.CONCAT(I24,"_",G24)</f>
+        <v>KD24_c007_a1</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="20"/>
-        <v>KD24_c008_a1_FIC</v>
+        <f t="shared" si="18"/>
+        <v>KD24_c007_a1_FIA</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>45674</v>
@@ -1437,7 +1495,7 @@
         <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -1446,21 +1504,21 @@
         <v>7</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c009</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c008</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25:K25" si="21">_xlfn.CONCAT(I25,"_",G25)</f>
-        <v>KD24_c009_a1</v>
+        <f t="shared" ref="J25:K25" si="19">_xlfn.CONCAT(I25,"_",G25)</f>
+        <v>KD24_c008_a1</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="21"/>
-        <v>KD24_c009_a1_FIA</v>
+        <f t="shared" si="19"/>
+        <v>KD24_c008_a1_FIA</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1">
         <v>45674</v>
@@ -1472,30 +1530,30 @@
         <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c009</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c008</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ref="J26:K26" si="22">_xlfn.CONCAT(I26,"_",G26)</f>
-        <v>KD24_c009_a2</v>
+        <f t="shared" ref="J26:K26" si="20">_xlfn.CONCAT(I26,"_",G26)</f>
+        <v>KD24_c008_a1</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="22"/>
-        <v>KD24_c009_a2_FIB</v>
+        <f t="shared" si="20"/>
+        <v>KD24_c008_a1_FIB</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1">
         <v>45674</v>
@@ -1507,30 +1565,30 @@
         <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c010</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c008</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27:K27" si="23">_xlfn.CONCAT(I27,"_",G27)</f>
-        <v>KD24_c010_a1</v>
+        <f t="shared" ref="J27:K27" si="21">_xlfn.CONCAT(I27,"_",G27)</f>
+        <v>KD24_c008_a1</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="23"/>
-        <v>KD24_c010_a1_FIB</v>
+        <f t="shared" si="21"/>
+        <v>KD24_c008_a1_FIC</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1">
         <v>45674</v>
@@ -1542,30 +1600,30 @@
         <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c010</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c009</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" ref="J28:K28" si="24">_xlfn.CONCAT(I28,"_",G28)</f>
-        <v>KD24_c010_a1</v>
+        <f t="shared" ref="J28:K28" si="22">_xlfn.CONCAT(I28,"_",G28)</f>
+        <v>KD24_c009_a1</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="24"/>
-        <v>KD24_c010_a1_FIC</v>
+        <f t="shared" si="22"/>
+        <v>KD24_c009_a1_FIA</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1">
         <v>45674</v>
@@ -1577,30 +1635,30 @@
         <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c011</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c009</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" ref="J29:K29" si="25">_xlfn.CONCAT(I29,"_",G29)</f>
-        <v>KD24_c011_a1</v>
+        <f t="shared" ref="J29:K29" si="23">_xlfn.CONCAT(I29,"_",G29)</f>
+        <v>KD24_c009_a2</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="25"/>
-        <v>KD24_c011_a1_FIA</v>
+        <f t="shared" si="23"/>
+        <v>KD24_c009_a2_FIB</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1">
         <v>45674</v>
@@ -1612,7 +1670,7 @@
         <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -1621,21 +1679,21 @@
         <v>9</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c011</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c010</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ref="J30:K30" si="26">_xlfn.CONCAT(I30,"_",G30)</f>
-        <v>KD24_c011_a1</v>
+        <f t="shared" ref="J30:K30" si="24">_xlfn.CONCAT(I30,"_",G30)</f>
+        <v>KD24_c010_a1</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="26"/>
-        <v>KD24_c011_a1_FIB</v>
+        <f t="shared" si="24"/>
+        <v>KD24_c010_a1_FIB</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <v>45674</v>
@@ -1647,30 +1705,30 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c012</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c010</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ref="J31:K31" si="27">_xlfn.CONCAT(I31,"_",G31)</f>
-        <v>KD24_c012_a1</v>
+        <f t="shared" ref="J31:K31" si="25">_xlfn.CONCAT(I31,"_",G31)</f>
+        <v>KD24_c010_a1</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="27"/>
-        <v>KD24_c012_a1_FIA</v>
+        <f t="shared" si="25"/>
+        <v>KD24_c010_a1_FIC</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1">
         <v>45674</v>
@@ -1682,30 +1740,30 @@
         <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c012</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c011</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" ref="J32:K32" si="28">_xlfn.CONCAT(I32,"_",G32)</f>
-        <v>KD24_c012_a1</v>
+        <f t="shared" ref="J32:K32" si="26">_xlfn.CONCAT(I32,"_",G32)</f>
+        <v>KD24_c011_a1</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="28"/>
-        <v>KD24_c012_a1_FIB</v>
+        <f t="shared" si="26"/>
+        <v>KD24_c011_a1_FIA</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1">
         <v>45674</v>
@@ -1717,30 +1775,30 @@
         <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v>KD24_c012</v>
+        <f t="shared" si="2"/>
+        <v>KD24_c011</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" ref="J33:K33" si="29">_xlfn.CONCAT(I33,"_",G33)</f>
-        <v>KD24_c012_a1</v>
+        <f t="shared" ref="J33:K33" si="27">_xlfn.CONCAT(I33,"_",G33)</f>
+        <v>KD24_c011_a1</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="29"/>
-        <v>KD24_c012_a1_FIC</v>
+        <f t="shared" si="27"/>
+        <v>KD24_c011_a1_FIB</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1">
         <v>45674</v>
@@ -1758,23 +1816,584 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>KD24_c012</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ref="J34:K34" si="28">_xlfn.CONCAT(I34,"_",G34)</f>
+        <v>KD24_c012_a1</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="28"/>
+        <v>KD24_c012_a1_FIA</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>KD24_c012</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ref="J35:K35" si="29">_xlfn.CONCAT(I35,"_",G35)</f>
+        <v>KD24_c012_a1</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="29"/>
+        <v>KD24_c012_a1_FIB</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>KD24_c012</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ref="J36:K36" si="30">_xlfn.CONCAT(I36,"_",G36)</f>
+        <v>KD24_c012_a1</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="30"/>
+        <v>KD24_c012_a1_FIC</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
         <v>14</v>
       </c>
-      <c r="I34" t="str">
-        <f t="shared" si="1"/>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
         <v>KD24_c012</v>
       </c>
-      <c r="J34" t="str">
-        <f t="shared" ref="J34:K34" si="30">_xlfn.CONCAT(I34,"_",G34)</f>
+      <c r="J37" t="str">
+        <f t="shared" ref="J37:K50" si="31">_xlfn.CONCAT(I37,"_",G37)</f>
         <v>KD24_c012_a1</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="30"/>
+      <c r="K37" t="str">
+        <f t="shared" si="31"/>
         <v>KD24_c012_a1_FID</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" ref="I38:I50" si="32">_xlfn.CONCAT(E38,"_",F38)</f>
+        <v>KD24_c014</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ref="J38:J50" si="33">_xlfn.CONCAT(I38,"_",G38)</f>
+        <v>KD24_c014_a1</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c014_a1_FIA</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c014</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c014_a2</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c014_a2_FIB</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c016</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c016_a1</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c016_a1_FIA</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c017</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c017_a1</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c017_a1_FIA</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c017</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c017_a2</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c017_a2_FIB</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c018</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c018_a1</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c018_a1_FIA</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c018</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c018_a1</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c018_a1_FIB</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c020</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c020_a1</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c020_a1_FIA</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c021</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c021_a2</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c021_a2_FIB</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c023</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c023_a1</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c023_a1_FIA</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c023</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c023_a1</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c023_a1_FIB</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c023</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c023_a1</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c023_a1_FIC</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="32"/>
+        <v>KD24_c024</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="33"/>
+        <v>KD24_c024_a1</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="31"/>
+        <v>KD24_c024_a1_FIA</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>